--- a/public/2024/11/04/harry-browne-permanent-portfolio/Stocks_Bonds_Gold_Cash_Summary_Stats.xlsx
+++ b/public/2024/11/04/harry-browne-permanent-portfolio/Stocks_Bonds_Gold_Cash_Summary_Stats.xlsx
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0832436097472125</v>
+        <v>0.05747230042821246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07225116750359212</v>
+        <v>0.06003419719111461</v>
       </c>
       <c r="D2" t="n">
-        <v>1.152142070826383</v>
+        <v>0.9573260427761443</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08395293441697915</v>
+        <v>0.05723511992545527</v>
       </c>
       <c r="F2" t="n">
         <v>0.02879420493358031</v>
